--- a/biology/Botanique/Erling_Christophersen/Erling_Christophersen.xlsx
+++ b/biology/Botanique/Erling_Christophersen/Erling_Christophersen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Erling Christophersen, né le 17 avril 1898 à Christiana et mort le 9 novembre 1994 à Oslo, est un botaniste, bryologiste et ptéridologiste norvégien qui fut élu académicien en 1944.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Erling Christophersen est le fils du consul général Mads Wiel Christophersen (1871-1955) et de son épouse, née Christine Schweigaard (1876-1953) et le petit-fils du magnat des affaires Christian Christophersen (1840-1900)[1] et de l'ancien Premier ministre (1884) Christian Schweigaard (1838-1899). Il a deux sœurs cadettes, Agnes (1899) et Thea (1903).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erling Christophersen est le fils du consul général Mads Wiel Christophersen (1871-1955) et de son épouse, née Christine Schweigaard (1876-1953) et le petit-fils du magnat des affaires Christian Christophersen (1840-1900) et de l'ancien Premier ministre (1884) Christian Schweigaard (1838-1899). Il a deux sœurs cadettes, Agnes (1899) et Thea (1903).
 À la fin de ses études secondaires à la Frogner Hoiere Almenskole, il obtient son examen artium en 1916, puis sert dans l'armée norvégienne en 1917 et 1918. Il poursuit ses études à l'université de Christiana de 1918 à 1921. Ensuite, il continue ses études à l'université Yale aux États-Unis. Il obtient son doctorat de troisième cycle en 1924 grâce à une thèse portant sur les réactions acides du sol en relation avec la distribution végétale du parc national de Sylene en Norvège. Il participe en 1924 à la cinquième expédition Tanager jusqu'à Hawaï commandée par le United States Fish and Wildlife Service. Il épouse Doris Bull (1899-1993) à l'église de Frogner d'Oslo, le 22 décembre 1925. Il est professeur de botanique à l'université d'Hawaï entre 1929 et 1932, tout en étant botaniste au Bernice P. Bishop Museum d'Honolulu, puis il retourne en Norvège pour diriger le musée botanique d'Oslo de 1933 à 1947. Il fait partie de l'expédition scientifique norvégienne jusqu'à Tristan da Cunha en 1937-1938, où il découvre une espèce nouvelle, Lophurella christopherseni.
 Erling Christophersen est nommé attaché culturel à l'ambassade de Norvège à Washington de 1947 à  1951 et conseiller culturel de 1962 à 1964. Entre-temps, il dirige le bureau des relations culturelles avec les pays étrangers au ministère des Affaires étrangères de 1951 à 1961 et de 1965 à 1968. Il soutient la fondation de diverses associations d'échanges culturels et scientifiques. Entre 1947 et 1949, il est président de l'université d'été américaine à l'université d'Oslo.
 </t>
@@ -544,7 +558,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Erling Christophersen était membre de l'Association norvégienne de botanique et président de 1941 à 1945. Il publie dans la revue scientifique de l'association: Blyttia.
 Il est élu membre de l'Académie norvégienne des sciences et des lettres en 1944.
@@ -577,7 +593,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Soil reaction and plant distribution in the Sylene National Park, Yale University, Trans. Conn. Acad. Sci. p. 471–577, 1925
 En collaboration avec Edward L. Caum, Vascular plants of the Leeward Islands, Hawaii, in: Vegetation of Pacific equatorial islands, Bernice P. Bishop Museum Bulletin no 81; Tanager Expedition Publication no 7. Honolulu, Hawaï: Bishop Museum Press, 1931
@@ -615,28 +633,30 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>(Asteraceae) Lipochaeta christophersenii H.St.John[2]
-(Dryopteridaceae) Dryopteris christophersenii C.Chr.[3]
-(Ebenaceae) Diospyros christophersenii Fosberg[4]
-(Elaeocarpaceae) Elaeocarpus christophersenii A.C.Sm.[5]
-(Euphorbiaceae) Glochidion christophersenii Croizat[6]
-(Euphorbiaceae) Phyllanthus christophersenii (Croizat) W.L.Wagner &amp; Lorence[7]
-(Gesneriaceae) Cyrtandra christophersenii H.St.John &amp; Storey[8]
-(Grammitidaceae Grammitis christophersenii Copel.[9]
-(Grammitidaceae) Oreogrammitis christophersenii (Copel.) Parris[10]
-(Lomariopsidaceae) Elaphoglossum christophersenii Krajina[11]
-(Myrtaceae) Syzygium christophersenii Whistler[12]
-(Oleandraceae) Oleandra christophersenii C.Chr[13].
-(Orchidaceae) Bulbophyllum christophersenii L.O.Williams[14]
-(Pandanaceae) Pandanus christophersenii H.St.John[15]
-(Piperaceae) Peperomia christophersenii Yunck.[16]
-(Poaceae) Deschampsia christophersenii C.E.Hubb.[17]
-(Rubiaceae) Psychotria christophersenii Whistler[18]
-(Rutaceae) Melicope christophersenii (St.John) T.G.Hartley &amp; B.C.Stone[19]
-(Rutaceae) Pelea christophersenii H.St.John[20]
-(Thymelaeaceae) Daphne christophersenii Halda[21]</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(Asteraceae) Lipochaeta christophersenii H.St.John
+(Dryopteridaceae) Dryopteris christophersenii C.Chr.
+(Ebenaceae) Diospyros christophersenii Fosberg
+(Elaeocarpaceae) Elaeocarpus christophersenii A.C.Sm.
+(Euphorbiaceae) Glochidion christophersenii Croizat
+(Euphorbiaceae) Phyllanthus christophersenii (Croizat) W.L.Wagner &amp; Lorence
+(Gesneriaceae) Cyrtandra christophersenii H.St.John &amp; Storey
+(Grammitidaceae Grammitis christophersenii Copel.
+(Grammitidaceae) Oreogrammitis christophersenii (Copel.) Parris
+(Lomariopsidaceae) Elaphoglossum christophersenii Krajina
+(Myrtaceae) Syzygium christophersenii Whistler
+(Oleandraceae) Oleandra christophersenii C.Chr.
+(Orchidaceae) Bulbophyllum christophersenii L.O.Williams
+(Pandanaceae) Pandanus christophersenii H.St.John
+(Piperaceae) Peperomia christophersenii Yunck.
+(Poaceae) Deschampsia christophersenii C.E.Hubb.
+(Rubiaceae) Psychotria christophersenii Whistler
+(Rutaceae) Melicope christophersenii (St.John) T.G.Hartley &amp; B.C.Stone
+(Rutaceae) Pelea christophersenii H.St.John
+(Thymelaeaceae) Daphne christophersenii Halda</t>
         </is>
       </c>
     </row>
